--- a/data/resumes_scrubbed/legislative_activity/101_1.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/101_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{69C01379-DD8F-495E-AB5B-9AB8B7E0EC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{69C01379-DD8F-495E-AB5B-9AB8B7E0EC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{874AC922-80DB-4B8C-ADDB-A98FDA7282B5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="101_1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t xml:space="preserve">Pages of proceedings  </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension of remarks  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Public bills enacted into law  </t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t xml:space="preserve">     Measures passed, Senate joint resolutions  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Measures passed, House joint resolurions  </t>
-  </si>
-  <si>
     <t xml:space="preserve">     Measures passed, Senate concurrent resolutions </t>
   </si>
   <si>
@@ -155,12 +149,18 @@
   </si>
   <si>
     <t xml:space="preserve">     Measures introduced, Simple resolutions  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extensions of remarks  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures passed, House joint resolutions  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>101</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3">
         <v>32511</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>32834</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
         <v>4144</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>90</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>30</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>605</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>121</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>128</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>106</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
         <v>50</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>39</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>22</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>139</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>387</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>198</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>45</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
         <v>84</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
         <v>12</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1">
         <v>44</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <v>22</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <v>31</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
         <v>109</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2">
         <v>2548</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
         <v>2000</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1">
         <v>234</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
         <v>87</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1">
         <v>227</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1">
         <v>11</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1">
         <v>312</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
         <v>142</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
         <v>9</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
